--- a/LF/PreTAS/Nigeria/june 2024/ng_lf_pretas_2406_1_sit_part.xlsx
+++ b/LF/PreTAS/Nigeria/june 2024/ng_lf_pretas_2406_1_sit_part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\june 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C937AEED-4BD4-4B41-A67F-B51880B2BD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2746E5-85F2-44F7-9075-C12BE90598BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="209">
   <si>
     <t>type</t>
   </si>
@@ -521,12 +521,6 @@
     <t>Gwadangaji</t>
   </si>
   <si>
-    <t>ng_lf_pretas_2406_1_sit_part</t>
-  </si>
-  <si>
-    <t>(June 2024) - 1. Nigeria - Pre TAS LF Site &amp; participant Form</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -650,18 +644,9 @@
     <t>c_nbr_participant</t>
   </si>
   <si>
-    <t>p_index</t>
-  </si>
-  <si>
-    <t>Index of participant</t>
-  </si>
-  <si>
     <t>read_only</t>
   </si>
   <si>
-    <t>concat(${c_recorder}, '_', ${c_cluster_id}, '_', ${p_index})</t>
-  </si>
-  <si>
     <t>repeat_count</t>
   </si>
   <si>
@@ -671,7 +656,13 @@
     <t>Enter the number of participant you will enter for this village</t>
   </si>
   <si>
-    <t>ng_pretas_p_2406</t>
+    <t>ng_lf_pretas_2406_1_sit_part_v2</t>
+  </si>
+  <si>
+    <t>(June 2024) - 1. Nigeria - Pre TAS LF Site &amp; participant Form V2</t>
+  </si>
+  <si>
+    <t>ng_pretas_p_2406_v2</t>
   </si>
 </sst>
 </file>
@@ -1244,13 +1235,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1312,10 +1303,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="47.25">
@@ -1640,10 +1631,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>43</v>
@@ -1654,10 +1645,10 @@
     </row>
     <row r="19" spans="1:15" s="9" customFormat="1">
       <c r="A19" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
@@ -1666,7 +1657,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="22"/>
       <c r="I19" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -1675,13 +1666,13 @@
     </row>
     <row r="20" spans="1:15" s="9" customFormat="1">
       <c r="A20" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="27"/>
@@ -1695,15 +1686,15 @@
       <c r="M20" s="27"/>
       <c r="N20" s="32"/>
       <c r="O20" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="9" customFormat="1">
       <c r="A21" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
@@ -1712,7 +1703,7 @@
       <c r="G21" s="26"/>
       <c r="H21" s="22"/>
       <c r="I21" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
@@ -1721,10 +1712,10 @@
     </row>
     <row r="22" spans="1:15" s="9" customFormat="1">
       <c r="A22" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="24"/>
@@ -1733,7 +1724,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="22"/>
       <c r="I22" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
@@ -1745,10 +1736,10 @@
         <v>37</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1764,22 +1755,22 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:15" s="9" customFormat="1" ht="47.25">
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="31.5">
       <c r="A24" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14" t="s">
@@ -1794,17 +1785,17 @@
         <v>13</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14" t="s">
@@ -1819,169 +1810,144 @@
         <v>13</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D26" s="14"/>
       <c r="F26" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="9" customFormat="1">
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="31.5">
       <c r="A27" s="9" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>169</v>
+        <v>183</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="9" customFormat="1" ht="31.5">
+    <row r="28" spans="1:15" s="9" customFormat="1">
       <c r="A28" s="9" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="H28" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:15" s="9" customFormat="1">
       <c r="A29" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>189</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="F29" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="9" customFormat="1">
+      <c r="A31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="H29" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:15" s="9" customFormat="1">
-      <c r="A30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="F30" s="9" t="s">
+      <c r="D31" s="14"/>
+      <c r="H31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="9" customFormat="1">
-      <c r="A32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="H32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-    </row>
-    <row r="34" spans="1:13" s="9" customFormat="1">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1">
+      <c r="A33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:13" s="9" customFormat="1">
-      <c r="A35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2557,46 +2523,46 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" t="s">
         <v>197</v>
       </c>
-      <c r="B49" t="s">
-        <v>199</v>
-      </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s">
         <v>200</v>
       </c>
-      <c r="B51" t="s">
-        <v>202</v>
-      </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3913,10 +3879,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>66</v>
